--- a/vista-dev/vista-dev-generator/src/main/resources/com/propertyvista/generator/util/floorplan-amenities.xlsx
+++ b/vista-dev/vista-dev-generator/src/main/resources/com/propertyvista/generator/util/floorplan-amenities.xlsx
@@ -86,7 +86,7 @@
     <t>Walk-in closets</t>
   </si>
   <si>
-    <t>garbageDisposal</t>
+    <t>disposal</t>
   </si>
   <si>
     <t>Garbage Disposal</t>
@@ -234,7 +234,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
